--- a/data/outputs/能源化工元源数据文件_elsevier/10（2）BioResources.xlsx
+++ b/data/outputs/能源化工元源数据文件_elsevier/10（2）BioResources.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS155"/>
+  <dimension ref="A1:BU155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -933,6 +943,12 @@
       <c r="BQ2" t="inlineStr"/>
       <c r="BR2" t="inlineStr"/>
       <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1140,6 +1156,12 @@
       <c r="BQ3" t="inlineStr"/>
       <c r="BR3" t="inlineStr"/>
       <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1335,6 +1357,12 @@
       <c r="BQ4" t="inlineStr"/>
       <c r="BR4" t="inlineStr"/>
       <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1542,6 +1570,12 @@
       <c r="BQ5" t="inlineStr"/>
       <c r="BR5" t="inlineStr"/>
       <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1737,6 +1771,12 @@
       <c r="BQ6" t="inlineStr"/>
       <c r="BR6" t="inlineStr"/>
       <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1944,6 +1984,12 @@
       <c r="BQ7" t="inlineStr"/>
       <c r="BR7" t="inlineStr"/>
       <c r="BS7" t="inlineStr"/>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2147,6 +2193,12 @@
       <c r="BQ8" t="inlineStr"/>
       <c r="BR8" t="inlineStr"/>
       <c r="BS8" t="inlineStr"/>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2350,6 +2402,12 @@
       <c r="BQ9" t="inlineStr"/>
       <c r="BR9" t="inlineStr"/>
       <c r="BS9" t="inlineStr"/>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2545,6 +2603,12 @@
       <c r="BQ10" t="inlineStr"/>
       <c r="BR10" t="inlineStr"/>
       <c r="BS10" t="inlineStr"/>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2748,6 +2812,12 @@
       <c r="BQ11" t="inlineStr"/>
       <c r="BR11" t="inlineStr"/>
       <c r="BS11" t="inlineStr"/>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2943,6 +3013,12 @@
       <c r="BQ12" t="inlineStr"/>
       <c r="BR12" t="inlineStr"/>
       <c r="BS12" t="inlineStr"/>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3146,6 +3222,12 @@
       <c r="BQ13" t="inlineStr"/>
       <c r="BR13" t="inlineStr"/>
       <c r="BS13" t="inlineStr"/>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3357,6 +3439,12 @@
       <c r="BQ14" t="inlineStr"/>
       <c r="BR14" t="inlineStr"/>
       <c r="BS14" t="inlineStr"/>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3552,6 +3640,12 @@
       <c r="BQ15" t="inlineStr"/>
       <c r="BR15" t="inlineStr"/>
       <c r="BS15" t="inlineStr"/>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3755,6 +3849,12 @@
       <c r="BQ16" t="inlineStr"/>
       <c r="BR16" t="inlineStr"/>
       <c r="BS16" t="inlineStr"/>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3958,6 +4058,12 @@
       <c r="BQ17" t="inlineStr"/>
       <c r="BR17" t="inlineStr"/>
       <c r="BS17" t="inlineStr"/>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4169,6 +4275,12 @@
       <c r="BQ18" t="inlineStr"/>
       <c r="BR18" t="inlineStr"/>
       <c r="BS18" t="inlineStr"/>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4380,6 +4492,12 @@
       <c r="BQ19" t="inlineStr"/>
       <c r="BR19" t="inlineStr"/>
       <c r="BS19" t="inlineStr"/>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4591,6 +4709,12 @@
       <c r="BQ20" t="inlineStr"/>
       <c r="BR20" t="inlineStr"/>
       <c r="BS20" t="inlineStr"/>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4798,6 +4922,12 @@
       <c r="BQ21" t="inlineStr"/>
       <c r="BR21" t="inlineStr"/>
       <c r="BS21" t="inlineStr"/>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5009,6 +5139,12 @@
       <c r="BQ22" t="inlineStr"/>
       <c r="BR22" t="inlineStr"/>
       <c r="BS22" t="inlineStr"/>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5220,6 +5356,12 @@
       <c r="BQ23" t="inlineStr"/>
       <c r="BR23" t="inlineStr"/>
       <c r="BS23" t="inlineStr"/>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5423,6 +5565,12 @@
       <c r="BQ24" t="inlineStr"/>
       <c r="BR24" t="inlineStr"/>
       <c r="BS24" t="inlineStr"/>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5630,6 +5778,12 @@
       <c r="BQ25" t="inlineStr"/>
       <c r="BR25" t="inlineStr"/>
       <c r="BS25" t="inlineStr"/>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5841,6 +5995,12 @@
       <c r="BQ26" t="inlineStr"/>
       <c r="BR26" t="inlineStr"/>
       <c r="BS26" t="inlineStr"/>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6044,6 +6204,12 @@
       <c r="BQ27" t="inlineStr"/>
       <c r="BR27" t="inlineStr"/>
       <c r="BS27" t="inlineStr"/>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6247,6 +6413,12 @@
       <c r="BQ28" t="inlineStr"/>
       <c r="BR28" t="inlineStr"/>
       <c r="BS28" t="inlineStr"/>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6442,6 +6614,12 @@
       <c r="BQ29" t="inlineStr"/>
       <c r="BR29" t="inlineStr"/>
       <c r="BS29" t="inlineStr"/>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6645,6 +6823,12 @@
       <c r="BQ30" t="inlineStr"/>
       <c r="BR30" t="inlineStr"/>
       <c r="BS30" t="inlineStr"/>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6856,6 +7040,12 @@
       <c r="BQ31" t="inlineStr"/>
       <c r="BR31" t="inlineStr"/>
       <c r="BS31" t="inlineStr"/>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7067,6 +7257,12 @@
       <c r="BQ32" t="inlineStr"/>
       <c r="BR32" t="inlineStr"/>
       <c r="BS32" t="inlineStr"/>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7278,6 +7474,12 @@
       <c r="BQ33" t="inlineStr"/>
       <c r="BR33" t="inlineStr"/>
       <c r="BS33" t="inlineStr"/>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7477,6 +7679,12 @@
       <c r="BQ34" t="inlineStr"/>
       <c r="BR34" t="inlineStr"/>
       <c r="BS34" t="inlineStr"/>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7680,6 +7888,12 @@
       <c r="BQ35" t="inlineStr"/>
       <c r="BR35" t="inlineStr"/>
       <c r="BS35" t="inlineStr"/>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7883,6 +8097,12 @@
       <c r="BQ36" t="inlineStr"/>
       <c r="BR36" t="inlineStr"/>
       <c r="BS36" t="inlineStr"/>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8086,6 +8306,12 @@
       <c r="BQ37" t="inlineStr"/>
       <c r="BR37" t="inlineStr"/>
       <c r="BS37" t="inlineStr"/>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8281,6 +8507,12 @@
       <c r="BQ38" t="inlineStr"/>
       <c r="BR38" t="inlineStr"/>
       <c r="BS38" t="inlineStr"/>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8480,6 +8712,12 @@
       <c r="BQ39" t="inlineStr"/>
       <c r="BR39" t="inlineStr"/>
       <c r="BS39" t="inlineStr"/>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8683,6 +8921,12 @@
       <c r="BQ40" t="inlineStr"/>
       <c r="BR40" t="inlineStr"/>
       <c r="BS40" t="inlineStr"/>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8886,6 +9130,12 @@
       <c r="BQ41" t="inlineStr"/>
       <c r="BR41" t="inlineStr"/>
       <c r="BS41" t="inlineStr"/>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9089,6 +9339,12 @@
       <c r="BQ42" t="inlineStr"/>
       <c r="BR42" t="inlineStr"/>
       <c r="BS42" t="inlineStr"/>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9300,6 +9556,12 @@
       <c r="BQ43" t="inlineStr"/>
       <c r="BR43" t="inlineStr"/>
       <c r="BS43" t="inlineStr"/>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9503,6 +9765,12 @@
       <c r="BQ44" t="inlineStr"/>
       <c r="BR44" t="inlineStr"/>
       <c r="BS44" t="inlineStr"/>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9706,6 +9974,12 @@
       <c r="BQ45" t="inlineStr"/>
       <c r="BR45" t="inlineStr"/>
       <c r="BS45" t="inlineStr"/>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9917,6 +10191,12 @@
       <c r="BQ46" t="inlineStr"/>
       <c r="BR46" t="inlineStr"/>
       <c r="BS46" t="inlineStr"/>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10120,6 +10400,12 @@
       <c r="BQ47" t="inlineStr"/>
       <c r="BR47" t="inlineStr"/>
       <c r="BS47" t="inlineStr"/>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10323,6 +10609,12 @@
       <c r="BQ48" t="inlineStr"/>
       <c r="BR48" t="inlineStr"/>
       <c r="BS48" t="inlineStr"/>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10526,6 +10818,12 @@
       <c r="BQ49" t="inlineStr"/>
       <c r="BR49" t="inlineStr"/>
       <c r="BS49" t="inlineStr"/>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10737,6 +11035,12 @@
       <c r="BQ50" t="inlineStr"/>
       <c r="BR50" t="inlineStr"/>
       <c r="BS50" t="inlineStr"/>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10948,6 +11252,12 @@
       <c r="BQ51" t="inlineStr"/>
       <c r="BR51" t="inlineStr"/>
       <c r="BS51" t="inlineStr"/>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11151,6 +11461,12 @@
       <c r="BQ52" t="inlineStr"/>
       <c r="BR52" t="inlineStr"/>
       <c r="BS52" t="inlineStr"/>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11362,6 +11678,12 @@
       <c r="BQ53" t="inlineStr"/>
       <c r="BR53" t="inlineStr"/>
       <c r="BS53" t="inlineStr"/>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11565,6 +11887,12 @@
       <c r="BQ54" t="inlineStr"/>
       <c r="BR54" t="inlineStr"/>
       <c r="BS54" t="inlineStr"/>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11776,6 +12104,12 @@
       <c r="BQ55" t="inlineStr"/>
       <c r="BR55" t="inlineStr"/>
       <c r="BS55" t="inlineStr"/>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11979,6 +12313,12 @@
       <c r="BQ56" t="inlineStr"/>
       <c r="BR56" t="inlineStr"/>
       <c r="BS56" t="inlineStr"/>
+      <c r="BT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12182,6 +12522,12 @@
       <c r="BQ57" t="inlineStr"/>
       <c r="BR57" t="inlineStr"/>
       <c r="BS57" t="inlineStr"/>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12393,6 +12739,12 @@
       <c r="BQ58" t="inlineStr"/>
       <c r="BR58" t="inlineStr"/>
       <c r="BS58" t="inlineStr"/>
+      <c r="BT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12596,6 +12948,12 @@
       <c r="BQ59" t="inlineStr"/>
       <c r="BR59" t="inlineStr"/>
       <c r="BS59" t="inlineStr"/>
+      <c r="BT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12799,6 +13157,12 @@
       <c r="BQ60" t="inlineStr"/>
       <c r="BR60" t="inlineStr"/>
       <c r="BS60" t="inlineStr"/>
+      <c r="BT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13002,6 +13366,12 @@
       <c r="BQ61" t="inlineStr"/>
       <c r="BR61" t="inlineStr"/>
       <c r="BS61" t="inlineStr"/>
+      <c r="BT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13213,6 +13583,12 @@
       <c r="BQ62" t="inlineStr"/>
       <c r="BR62" t="inlineStr"/>
       <c r="BS62" t="inlineStr"/>
+      <c r="BT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13416,6 +13792,12 @@
       <c r="BQ63" t="inlineStr"/>
       <c r="BR63" t="inlineStr"/>
       <c r="BS63" t="inlineStr"/>
+      <c r="BT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13627,6 +14009,12 @@
       <c r="BQ64" t="inlineStr"/>
       <c r="BR64" t="inlineStr"/>
       <c r="BS64" t="inlineStr"/>
+      <c r="BT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13830,6 +14218,12 @@
       <c r="BQ65" t="inlineStr"/>
       <c r="BR65" t="inlineStr"/>
       <c r="BS65" t="inlineStr"/>
+      <c r="BT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14033,6 +14427,12 @@
       <c r="BQ66" t="inlineStr"/>
       <c r="BR66" t="inlineStr"/>
       <c r="BS66" t="inlineStr"/>
+      <c r="BT66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14236,6 +14636,12 @@
       <c r="BQ67" t="inlineStr"/>
       <c r="BR67" t="inlineStr"/>
       <c r="BS67" t="inlineStr"/>
+      <c r="BT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14439,6 +14845,12 @@
       <c r="BQ68" t="inlineStr"/>
       <c r="BR68" t="inlineStr"/>
       <c r="BS68" t="inlineStr"/>
+      <c r="BT68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14642,6 +15054,12 @@
       <c r="BQ69" t="inlineStr"/>
       <c r="BR69" t="inlineStr"/>
       <c r="BS69" t="inlineStr"/>
+      <c r="BT69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14845,6 +15263,12 @@
       <c r="BQ70" t="inlineStr"/>
       <c r="BR70" t="inlineStr"/>
       <c r="BS70" t="inlineStr"/>
+      <c r="BT70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15056,6 +15480,12 @@
       <c r="BQ71" t="inlineStr"/>
       <c r="BR71" t="inlineStr"/>
       <c r="BS71" t="inlineStr"/>
+      <c r="BT71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15259,6 +15689,12 @@
       <c r="BQ72" t="inlineStr"/>
       <c r="BR72" t="inlineStr"/>
       <c r="BS72" t="inlineStr"/>
+      <c r="BT72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15470,6 +15906,12 @@
       <c r="BQ73" t="inlineStr"/>
       <c r="BR73" t="inlineStr"/>
       <c r="BS73" t="inlineStr"/>
+      <c r="BT73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15665,6 +16107,12 @@
       <c r="BQ74" t="inlineStr"/>
       <c r="BR74" t="inlineStr"/>
       <c r="BS74" t="inlineStr"/>
+      <c r="BT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -15868,6 +16316,12 @@
       <c r="BQ75" t="inlineStr"/>
       <c r="BR75" t="inlineStr"/>
       <c r="BS75" t="inlineStr"/>
+      <c r="BT75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16071,6 +16525,12 @@
       <c r="BQ76" t="inlineStr"/>
       <c r="BR76" t="inlineStr"/>
       <c r="BS76" t="inlineStr"/>
+      <c r="BT76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16282,6 +16742,12 @@
       <c r="BQ77" t="inlineStr"/>
       <c r="BR77" t="inlineStr"/>
       <c r="BS77" t="inlineStr"/>
+      <c r="BT77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16489,6 +16955,12 @@
       <c r="BQ78" t="inlineStr"/>
       <c r="BR78" t="inlineStr"/>
       <c r="BS78" t="inlineStr"/>
+      <c r="BT78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16696,6 +17168,12 @@
       <c r="BQ79" t="inlineStr"/>
       <c r="BR79" t="inlineStr"/>
       <c r="BS79" t="inlineStr"/>
+      <c r="BT79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -16899,6 +17377,12 @@
       <c r="BQ80" t="inlineStr"/>
       <c r="BR80" t="inlineStr"/>
       <c r="BS80" t="inlineStr"/>
+      <c r="BT80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17102,6 +17586,12 @@
       <c r="BQ81" t="inlineStr"/>
       <c r="BR81" t="inlineStr"/>
       <c r="BS81" t="inlineStr"/>
+      <c r="BT81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17309,6 +17799,12 @@
       <c r="BQ82" t="inlineStr"/>
       <c r="BR82" t="inlineStr"/>
       <c r="BS82" t="inlineStr"/>
+      <c r="BT82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17512,6 +18008,12 @@
       <c r="BQ83" t="inlineStr"/>
       <c r="BR83" t="inlineStr"/>
       <c r="BS83" t="inlineStr"/>
+      <c r="BT83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -17715,6 +18217,12 @@
       <c r="BQ84" t="inlineStr"/>
       <c r="BR84" t="inlineStr"/>
       <c r="BS84" t="inlineStr"/>
+      <c r="BT84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -17910,6 +18418,12 @@
       <c r="BQ85" t="inlineStr"/>
       <c r="BR85" t="inlineStr"/>
       <c r="BS85" t="inlineStr"/>
+      <c r="BT85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18113,6 +18627,12 @@
       <c r="BQ86" t="inlineStr"/>
       <c r="BR86" t="inlineStr"/>
       <c r="BS86" t="inlineStr"/>
+      <c r="BT86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18324,6 +18844,12 @@
       <c r="BQ87" t="inlineStr"/>
       <c r="BR87" t="inlineStr"/>
       <c r="BS87" t="inlineStr"/>
+      <c r="BT87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18527,6 +19053,12 @@
       <c r="BQ88" t="inlineStr"/>
       <c r="BR88" t="inlineStr"/>
       <c r="BS88" t="inlineStr"/>
+      <c r="BT88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -18738,6 +19270,12 @@
       <c r="BQ89" t="inlineStr"/>
       <c r="BR89" t="inlineStr"/>
       <c r="BS89" t="inlineStr"/>
+      <c r="BT89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -18941,6 +19479,12 @@
       <c r="BQ90" t="inlineStr"/>
       <c r="BR90" t="inlineStr"/>
       <c r="BS90" t="inlineStr"/>
+      <c r="BT90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19152,6 +19696,12 @@
       <c r="BQ91" t="inlineStr"/>
       <c r="BR91" t="inlineStr"/>
       <c r="BS91" t="inlineStr"/>
+      <c r="BT91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19355,6 +19905,12 @@
       <c r="BQ92" t="inlineStr"/>
       <c r="BR92" t="inlineStr"/>
       <c r="BS92" t="inlineStr"/>
+      <c r="BT92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19558,6 +20114,12 @@
       <c r="BQ93" t="inlineStr"/>
       <c r="BR93" t="inlineStr"/>
       <c r="BS93" t="inlineStr"/>
+      <c r="BT93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -19769,6 +20331,12 @@
       <c r="BQ94" t="inlineStr"/>
       <c r="BR94" t="inlineStr"/>
       <c r="BS94" t="inlineStr"/>
+      <c r="BT94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -19980,6 +20548,12 @@
       <c r="BQ95" t="inlineStr"/>
       <c r="BR95" t="inlineStr"/>
       <c r="BS95" t="inlineStr"/>
+      <c r="BT95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20191,6 +20765,12 @@
       <c r="BQ96" t="inlineStr"/>
       <c r="BR96" t="inlineStr"/>
       <c r="BS96" t="inlineStr"/>
+      <c r="BT96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20394,6 +20974,12 @@
       <c r="BQ97" t="inlineStr"/>
       <c r="BR97" t="inlineStr"/>
       <c r="BS97" t="inlineStr"/>
+      <c r="BT97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20597,6 +21183,12 @@
       <c r="BQ98" t="inlineStr"/>
       <c r="BR98" t="inlineStr"/>
       <c r="BS98" t="inlineStr"/>
+      <c r="BT98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -20800,6 +21392,12 @@
       <c r="BQ99" t="inlineStr"/>
       <c r="BR99" t="inlineStr"/>
       <c r="BS99" t="inlineStr"/>
+      <c r="BT99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21003,6 +21601,12 @@
       <c r="BQ100" t="inlineStr"/>
       <c r="BR100" t="inlineStr"/>
       <c r="BS100" t="inlineStr"/>
+      <c r="BT100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21206,6 +21810,12 @@
       <c r="BQ101" t="inlineStr"/>
       <c r="BR101" t="inlineStr"/>
       <c r="BS101" t="inlineStr"/>
+      <c r="BT101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21417,6 +22027,12 @@
       <c r="BQ102" t="inlineStr"/>
       <c r="BR102" t="inlineStr"/>
       <c r="BS102" t="inlineStr"/>
+      <c r="BT102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -21620,6 +22236,12 @@
       <c r="BQ103" t="inlineStr"/>
       <c r="BR103" t="inlineStr"/>
       <c r="BS103" t="inlineStr"/>
+      <c r="BT103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -21819,6 +22441,12 @@
       <c r="BQ104" t="inlineStr"/>
       <c r="BR104" t="inlineStr"/>
       <c r="BS104" t="inlineStr"/>
+      <c r="BT104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22018,6 +22646,12 @@
       <c r="BQ105" t="inlineStr"/>
       <c r="BR105" t="inlineStr"/>
       <c r="BS105" t="inlineStr"/>
+      <c r="BT105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22229,6 +22863,12 @@
       <c r="BQ106" t="inlineStr"/>
       <c r="BR106" t="inlineStr"/>
       <c r="BS106" t="inlineStr"/>
+      <c r="BT106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -22436,6 +23076,12 @@
       <c r="BQ107" t="inlineStr"/>
       <c r="BR107" t="inlineStr"/>
       <c r="BS107" t="inlineStr"/>
+      <c r="BT107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -22643,6 +23289,12 @@
       <c r="BQ108" t="inlineStr"/>
       <c r="BR108" t="inlineStr"/>
       <c r="BS108" t="inlineStr"/>
+      <c r="BT108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -22838,6 +23490,12 @@
       <c r="BQ109" t="inlineStr"/>
       <c r="BR109" t="inlineStr"/>
       <c r="BS109" t="inlineStr"/>
+      <c r="BT109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23041,6 +23699,12 @@
       <c r="BQ110" t="inlineStr"/>
       <c r="BR110" t="inlineStr"/>
       <c r="BS110" t="inlineStr"/>
+      <c r="BT110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23252,6 +23916,12 @@
       <c r="BQ111" t="inlineStr"/>
       <c r="BR111" t="inlineStr"/>
       <c r="BS111" t="inlineStr"/>
+      <c r="BT111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -23463,6 +24133,12 @@
       <c r="BQ112" t="inlineStr"/>
       <c r="BR112" t="inlineStr"/>
       <c r="BS112" t="inlineStr"/>
+      <c r="BT112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -23674,6 +24350,12 @@
       <c r="BQ113" t="inlineStr"/>
       <c r="BR113" t="inlineStr"/>
       <c r="BS113" t="inlineStr"/>
+      <c r="BT113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -23877,6 +24559,12 @@
       <c r="BQ114" t="inlineStr"/>
       <c r="BR114" t="inlineStr"/>
       <c r="BS114" t="inlineStr"/>
+      <c r="BT114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -24076,6 +24764,12 @@
       <c r="BQ115" t="inlineStr"/>
       <c r="BR115" t="inlineStr"/>
       <c r="BS115" t="inlineStr"/>
+      <c r="BT115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -24279,6 +24973,12 @@
       <c r="BQ116" t="inlineStr"/>
       <c r="BR116" t="inlineStr"/>
       <c r="BS116" t="inlineStr"/>
+      <c r="BT116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -24482,6 +25182,12 @@
       <c r="BQ117" t="inlineStr"/>
       <c r="BR117" t="inlineStr"/>
       <c r="BS117" t="inlineStr"/>
+      <c r="BT117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -24689,6 +25395,12 @@
       <c r="BQ118" t="inlineStr"/>
       <c r="BR118" t="inlineStr"/>
       <c r="BS118" t="inlineStr"/>
+      <c r="BT118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -24896,6 +25608,12 @@
       <c r="BQ119" t="inlineStr"/>
       <c r="BR119" t="inlineStr"/>
       <c r="BS119" t="inlineStr"/>
+      <c r="BT119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -25114,6 +25832,12 @@
         <is>
           <t>2-s2.0-84923667221</t>
         </is>
+      </c>
+      <c r="BT120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="121">
@@ -25318,6 +26042,12 @@
       <c r="BQ121" t="inlineStr"/>
       <c r="BR121" t="inlineStr"/>
       <c r="BS121" t="inlineStr"/>
+      <c r="BT121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -25529,6 +26259,12 @@
       <c r="BQ122" t="inlineStr"/>
       <c r="BR122" t="inlineStr"/>
       <c r="BS122" t="inlineStr"/>
+      <c r="BT122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -25740,6 +26476,12 @@
       <c r="BQ123" t="inlineStr"/>
       <c r="BR123" t="inlineStr"/>
       <c r="BS123" t="inlineStr"/>
+      <c r="BT123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -25943,6 +26685,12 @@
       <c r="BQ124" t="inlineStr"/>
       <c r="BR124" t="inlineStr"/>
       <c r="BS124" t="inlineStr"/>
+      <c r="BT124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -26146,6 +26894,12 @@
       <c r="BQ125" t="inlineStr"/>
       <c r="BR125" t="inlineStr"/>
       <c r="BS125" t="inlineStr"/>
+      <c r="BT125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -26353,6 +27107,12 @@
       <c r="BQ126" t="inlineStr"/>
       <c r="BR126" t="inlineStr"/>
       <c r="BS126" t="inlineStr"/>
+      <c r="BT126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -26556,6 +27316,12 @@
       <c r="BQ127" t="inlineStr"/>
       <c r="BR127" t="inlineStr"/>
       <c r="BS127" t="inlineStr"/>
+      <c r="BT127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -26751,6 +27517,12 @@
       <c r="BQ128" t="inlineStr"/>
       <c r="BR128" t="inlineStr"/>
       <c r="BS128" t="inlineStr"/>
+      <c r="BT128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -26954,6 +27726,12 @@
       <c r="BQ129" t="inlineStr"/>
       <c r="BR129" t="inlineStr"/>
       <c r="BS129" t="inlineStr"/>
+      <c r="BT129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -27165,6 +27943,12 @@
       <c r="BQ130" t="inlineStr"/>
       <c r="BR130" t="inlineStr"/>
       <c r="BS130" t="inlineStr"/>
+      <c r="BT130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -27376,6 +28160,12 @@
       <c r="BQ131" t="inlineStr"/>
       <c r="BR131" t="inlineStr"/>
       <c r="BS131" t="inlineStr"/>
+      <c r="BT131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -27583,6 +28373,12 @@
       <c r="BQ132" t="inlineStr"/>
       <c r="BR132" t="inlineStr"/>
       <c r="BS132" t="inlineStr"/>
+      <c r="BT132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -27786,6 +28582,12 @@
       <c r="BQ133" t="inlineStr"/>
       <c r="BR133" t="inlineStr"/>
       <c r="BS133" t="inlineStr"/>
+      <c r="BT133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -27993,6 +28795,12 @@
       <c r="BQ134" t="inlineStr"/>
       <c r="BR134" t="inlineStr"/>
       <c r="BS134" t="inlineStr"/>
+      <c r="BT134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -28200,6 +29008,12 @@
       <c r="BQ135" t="inlineStr"/>
       <c r="BR135" t="inlineStr"/>
       <c r="BS135" t="inlineStr"/>
+      <c r="BT135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -28411,6 +29225,12 @@
       <c r="BQ136" t="inlineStr"/>
       <c r="BR136" t="inlineStr"/>
       <c r="BS136" t="inlineStr"/>
+      <c r="BT136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -28618,6 +29438,12 @@
       <c r="BQ137" t="inlineStr"/>
       <c r="BR137" t="inlineStr"/>
       <c r="BS137" t="inlineStr"/>
+      <c r="BT137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -28829,6 +29655,12 @@
       <c r="BQ138" t="inlineStr"/>
       <c r="BR138" t="inlineStr"/>
       <c r="BS138" t="inlineStr"/>
+      <c r="BT138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -29040,6 +29872,12 @@
       <c r="BQ139" t="inlineStr"/>
       <c r="BR139" t="inlineStr"/>
       <c r="BS139" t="inlineStr"/>
+      <c r="BT139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -29243,6 +30081,12 @@
       <c r="BQ140" t="inlineStr"/>
       <c r="BR140" t="inlineStr"/>
       <c r="BS140" t="inlineStr"/>
+      <c r="BT140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -29454,6 +30298,12 @@
       <c r="BQ141" t="inlineStr"/>
       <c r="BR141" t="inlineStr"/>
       <c r="BS141" t="inlineStr"/>
+      <c r="BT141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -29665,6 +30515,12 @@
       <c r="BQ142" t="inlineStr"/>
       <c r="BR142" t="inlineStr"/>
       <c r="BS142" t="inlineStr"/>
+      <c r="BT142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -29876,6 +30732,12 @@
       <c r="BQ143" t="inlineStr"/>
       <c r="BR143" t="inlineStr"/>
       <c r="BS143" t="inlineStr"/>
+      <c r="BT143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -30079,6 +30941,12 @@
       <c r="BQ144" t="inlineStr"/>
       <c r="BR144" t="inlineStr"/>
       <c r="BS144" t="inlineStr"/>
+      <c r="BT144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -30282,6 +31150,12 @@
       <c r="BQ145" t="inlineStr"/>
       <c r="BR145" t="inlineStr"/>
       <c r="BS145" t="inlineStr"/>
+      <c r="BT145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -30493,6 +31367,12 @@
           <t>2-s2.0-84930403933</t>
         </is>
       </c>
+      <c r="BT146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU146" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -30712,6 +31592,12 @@
           <t>2-s2.0-84930192317</t>
         </is>
       </c>
+      <c r="BT147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU147" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -30923,6 +31809,12 @@
           <t>2-s2.0-84940876417</t>
         </is>
       </c>
+      <c r="BT148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU148" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -31134,6 +32026,12 @@
           <t>2-s2.0-84937032557</t>
         </is>
       </c>
+      <c r="BT149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU149" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -31353,6 +32251,12 @@
           <t>2-s2.0-84937678991</t>
         </is>
       </c>
+      <c r="BT150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU150" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -31572,6 +32476,12 @@
           <t>2-s2.0-84940868332</t>
         </is>
       </c>
+      <c r="BT151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU151" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -31783,6 +32693,12 @@
           <t>2-s2.0-84940830506</t>
         </is>
       </c>
+      <c r="BT152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU152" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -31994,6 +32910,12 @@
           <t>2-s2.0-84940886541</t>
         </is>
       </c>
+      <c r="BT153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU153" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -32213,6 +33135,12 @@
           <t>2-s2.0-84940795265</t>
         </is>
       </c>
+      <c r="BT154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU154" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -32428,6 +33356,12 @@
           <t>2-s2.0-84940823855</t>
         </is>
       </c>
+      <c r="BT155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU155" t="n">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
